--- a/CatLearningfMRI/Experiment/SupervisedSparse_test.xlsx
+++ b/CatLearningfMRI/Experiment/SupervisedSparse_test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="44">
   <si>
     <t>StimType</t>
   </si>
@@ -46,6 +46,111 @@
   </si>
   <si>
     <t>contr1</t>
+  </si>
+  <si>
+    <t>test4</t>
+  </si>
+  <si>
+    <t>test5</t>
+  </si>
+  <si>
+    <t>test6</t>
+  </si>
+  <si>
+    <t>test7</t>
+  </si>
+  <si>
+    <t>test8</t>
+  </si>
+  <si>
+    <t>test9</t>
+  </si>
+  <si>
+    <t>test10</t>
+  </si>
+  <si>
+    <t>test11</t>
+  </si>
+  <si>
+    <t>test12</t>
+  </si>
+  <si>
+    <t>test13</t>
+  </si>
+  <si>
+    <t>test14</t>
+  </si>
+  <si>
+    <t>test15</t>
+  </si>
+  <si>
+    <t>test16</t>
+  </si>
+  <si>
+    <t>contr2</t>
+  </si>
+  <si>
+    <t>contr3</t>
+  </si>
+  <si>
+    <t>contr4</t>
+  </si>
+  <si>
+    <t>contr5</t>
+  </si>
+  <si>
+    <t>contr6</t>
+  </si>
+  <si>
+    <t>contr7</t>
+  </si>
+  <si>
+    <t>contr8</t>
+  </si>
+  <si>
+    <t>contr9</t>
+  </si>
+  <si>
+    <t>contr10</t>
+  </si>
+  <si>
+    <t>contr11</t>
+  </si>
+  <si>
+    <t>contr12</t>
+  </si>
+  <si>
+    <t>contr13</t>
+  </si>
+  <si>
+    <t>contr14</t>
+  </si>
+  <si>
+    <t>contr15</t>
+  </si>
+  <si>
+    <t>contr16</t>
+  </si>
+  <si>
+    <t>catch2</t>
+  </si>
+  <si>
+    <t>catch3</t>
+  </si>
+  <si>
+    <t>catch4</t>
+  </si>
+  <si>
+    <t>catch5</t>
+  </si>
+  <si>
+    <t>catch6</t>
+  </si>
+  <si>
+    <t>catch7</t>
+  </si>
+  <si>
+    <t>catch8</t>
   </si>
 </sst>
 </file>
@@ -438,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection sqref="A1:B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -480,18 +585,298 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
